--- a/results/MVSE/imdb/MVSE_imdb<l01><WH>53.54.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l01><WH>53.54.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -900,11 +900,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -912,14 +908,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -934,34 +930,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="O7" t="n">
-        <v>51.11</v>
+        <v>51.61</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_40_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-14_05_30', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1008,33 +1004,33 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="O8" t="n">
-        <v>50.74</v>
+        <v>51.11</v>
       </c>
       <c r="P8" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_52_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_40_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1065,7 +1061,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1081,33 +1077,33 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="O9" t="n">
-        <v>50.33</v>
+        <v>50.74</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.16</v>
+        <v>1.92</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_04_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_52_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1154,33 +1150,33 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="O10" t="n">
-        <v>50.28</v>
+        <v>50.33</v>
       </c>
       <c r="P10" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.78</v>
+        <v>0.16</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_28_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_04_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1211,7 +1207,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1227,33 +1223,33 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="O11" t="n">
-        <v>49.48</v>
+        <v>50.28</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.85</v>
+        <v>2.78</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_28_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_28_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1300,7 +1296,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
@@ -1309,24 +1305,24 @@
         <v>1.74</v>
       </c>
       <c r="O12" t="n">
-        <v>49.37</v>
+        <v>49.48</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.39</v>
+        <v>0.85</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_40_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_28_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1373,29 +1369,102 @@
         </is>
       </c>
       <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O13" t="n">
+        <v>49.37</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_40_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>128</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
         <v>3</v>
       </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
         <v>1.63</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O14" t="n">
         <v>48.68</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P14" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q14" t="n">
         <v>0.6</v>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_17_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
